--- a/docs/data/quiz/exam_prep.xlsx
+++ b/docs/data/quiz/exam_prep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\data\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A280D0-8FD2-4276-A5F8-911ED84B3FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{748B2EB3-2ADA-428A-B7A0-81A9A3FAA860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BFB38F37-BA1B-486E-94D4-3EEF9D2023FC}"/>
   </bookViews>
